--- a/KiCad_PCB/Riscduino_Uno_Rev1.1/Riscduino_Uno_Rev1.1.BOM.xlsx
+++ b/KiCad_PCB/Riscduino_Uno_Rev1.1/Riscduino_Uno_Rev1.1.BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\Riscduino_Uno_Rev1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0357CD2-F979-4399-AFE3-F4E340AD3A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC01993D-2B4B-4491-9427-9963D6714689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,21 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Riscduino_Uno!$A$3:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -356,12 +367,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -371,14 +397,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,20 +414,120 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -724,10 +850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E221CE3D-3C20-4501-9B74-920CB4F2E1FE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,26 +872,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
@@ -776,19 +905,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -802,19 +931,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -828,19 +957,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -854,19 +983,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -880,19 +1009,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -906,19 +1035,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -932,19 +1061,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -958,19 +1087,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -984,19 +1113,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1010,19 +1139,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1036,19 +1165,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1062,19 +1191,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1088,19 +1217,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1114,19 +1243,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1140,19 +1269,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1166,19 +1295,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1192,19 +1321,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1218,19 +1347,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1244,19 +1373,19 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1270,19 +1399,19 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1296,19 +1425,19 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1322,19 +1451,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1348,19 +1477,19 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1374,19 +1503,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1400,19 +1529,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1426,19 +1555,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1452,19 +1581,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1478,19 +1607,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1504,19 +1633,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1530,19 +1659,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1556,19 +1685,19 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1582,19 +1711,19 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1612,8 +1741,9 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
